--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\share_folder\kitti_localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A3E21A-210B-48C7-8BF6-06E508E71BCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46822715-824B-4B78-BF7E-D12D3D70B4B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="3660" windowWidth="18120" windowHeight="15885" xr2:uid="{E600745C-2B55-4543-A3FF-1DEE9BB1AC8C}"/>
+    <workbookView xWindow="15000" yWindow="2760" windowWidth="18120" windowHeight="15885" xr2:uid="{E600745C-2B55-4543-A3FF-1DEE9BB1AC8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>sequence</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,12 +54,28 @@
     <t>rot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>tl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ndt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +88,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -98,8 +122,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -416,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7A36F3-FE8A-4D2D-8BA5-2972F8E685FF}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -432,7 +459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -449,7 +476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -460,7 +487,7 @@
         <v>7.8200000000000006E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -471,7 +498,7 @@
         <v>4.7800000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -482,7 +509,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -491,6 +518,954 @@
       </c>
       <c r="C6">
         <v>3.8760000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="C7">
+        <v>5.79E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.1172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>0.89578599999999997</v>
+      </c>
+      <c r="C12">
+        <v>0.95364000000000004</v>
+      </c>
+      <c r="D12">
+        <v>0.97317200000000004</v>
+      </c>
+      <c r="E12">
+        <v>0.82281199999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.85825099999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.79159599999999997</v>
+      </c>
+      <c r="H12">
+        <v>0.78413500000000003</v>
+      </c>
+      <c r="I12">
+        <v>0.77104899999999998</v>
+      </c>
+      <c r="J12">
+        <v>0.98577700000000001</v>
+      </c>
+      <c r="K12">
+        <v>0.95745599999999997</v>
+      </c>
+      <c r="L12">
+        <v>0.88629000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>200</v>
+      </c>
+      <c r="B13">
+        <v>0.79101500000000002</v>
+      </c>
+      <c r="C13">
+        <v>0.93814600000000004</v>
+      </c>
+      <c r="D13">
+        <v>0.90537599999999996</v>
+      </c>
+      <c r="E13">
+        <v>0.80945699999999998</v>
+      </c>
+      <c r="F13">
+        <v>0.85499599999999998</v>
+      </c>
+      <c r="G13">
+        <v>0.76620699999999997</v>
+      </c>
+      <c r="H13">
+        <v>0.74327600000000005</v>
+      </c>
+      <c r="I13">
+        <v>0.64619199999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.91305499999999995</v>
+      </c>
+      <c r="K13">
+        <v>0.89483299999999999</v>
+      </c>
+      <c r="L13">
+        <v>0.80860699999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>300</v>
+      </c>
+      <c r="B14">
+        <v>0.71408300000000002</v>
+      </c>
+      <c r="C14">
+        <v>0.916022</v>
+      </c>
+      <c r="D14">
+        <v>0.84723599999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.79851000000000005</v>
+      </c>
+      <c r="F14">
+        <v>0.85020499999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.70869800000000005</v>
+      </c>
+      <c r="H14">
+        <v>0.68428699999999998</v>
+      </c>
+      <c r="I14">
+        <v>0.48937399999999998</v>
+      </c>
+      <c r="J14">
+        <v>0.82192200000000004</v>
+      </c>
+      <c r="K14">
+        <v>0.82798000000000005</v>
+      </c>
+      <c r="L14">
+        <v>0.72951200000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>400</v>
+      </c>
+      <c r="B15">
+        <v>0.64694099999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.91055699999999995</v>
+      </c>
+      <c r="D15">
+        <v>0.796574</v>
+      </c>
+      <c r="E15">
+        <v>0.80727099999999996</v>
+      </c>
+      <c r="G15">
+        <v>0.633324</v>
+      </c>
+      <c r="H15">
+        <v>0.62586900000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.478798</v>
+      </c>
+      <c r="J15">
+        <v>0.739147</v>
+      </c>
+      <c r="K15">
+        <v>0.76959599999999995</v>
+      </c>
+      <c r="L15">
+        <v>0.66403000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>500</v>
+      </c>
+      <c r="B16">
+        <v>0.58884499999999995</v>
+      </c>
+      <c r="C16">
+        <v>0.90116300000000005</v>
+      </c>
+      <c r="D16">
+        <v>0.744502</v>
+      </c>
+      <c r="E16">
+        <v>0.80727099999999996</v>
+      </c>
+      <c r="G16">
+        <v>0.56040599999999996</v>
+      </c>
+      <c r="H16">
+        <v>0.56631600000000004</v>
+      </c>
+      <c r="I16">
+        <v>0.51860799999999996</v>
+      </c>
+      <c r="J16">
+        <v>0.66558899999999999</v>
+      </c>
+      <c r="K16">
+        <v>0.72188099999999999</v>
+      </c>
+      <c r="L16">
+        <v>0.63531599999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>600</v>
+      </c>
+      <c r="B17">
+        <v>0.53274299999999997</v>
+      </c>
+      <c r="C17">
+        <v>0.898872</v>
+      </c>
+      <c r="D17">
+        <v>0.69217799999999996</v>
+      </c>
+      <c r="G17">
+        <v>0.462532</v>
+      </c>
+      <c r="H17">
+        <v>0.49713400000000002</v>
+      </c>
+      <c r="I17">
+        <v>0.447934</v>
+      </c>
+      <c r="J17">
+        <v>0.60614500000000004</v>
+      </c>
+      <c r="K17">
+        <v>0.66448799999999997</v>
+      </c>
+      <c r="L17">
+        <v>0.55745800000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>700</v>
+      </c>
+      <c r="B18">
+        <v>0.48151100000000002</v>
+      </c>
+      <c r="C18">
+        <v>0.90348600000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.63548800000000005</v>
+      </c>
+      <c r="G18">
+        <v>0.40325800000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.43043500000000001</v>
+      </c>
+      <c r="J18">
+        <v>0.54906500000000003</v>
+      </c>
+      <c r="K18">
+        <v>0.60184499999999996</v>
+      </c>
+      <c r="L18">
+        <v>0.50581500000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>800</v>
+      </c>
+      <c r="B19">
+        <v>0.45101200000000002</v>
+      </c>
+      <c r="C19">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="D19">
+        <v>0.574901</v>
+      </c>
+      <c r="G19">
+        <v>0.371508</v>
+      </c>
+      <c r="H19">
+        <v>0.34221200000000002</v>
+      </c>
+      <c r="J19">
+        <v>0.50241400000000003</v>
+      </c>
+      <c r="K19">
+        <v>0.54472100000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.460893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:G20" si="0">AVERAGE(B12:B19)</f>
+        <v>0.63774200000000014</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.91611074999999997</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.77117837499999997</v>
+      </c>
+      <c r="E20">
+        <f>AVERAGE(E12:E16)</f>
+        <v>0.80906420000000012</v>
+      </c>
+      <c r="F20">
+        <f>AVERAGE(F12:F14)</f>
+        <v>0.85448399999999991</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0.58719112500000004</v>
+      </c>
+      <c r="H20">
+        <f>AVERAGE(H12:H19)</f>
+        <v>0.58420799999999995</v>
+      </c>
+      <c r="I20">
+        <f>AVERAGE(I12:I17)</f>
+        <v>0.5586591666666666</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20:L20" si="1">AVERAGE(J12:J19)</f>
+        <v>0.72288924999999993</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0.7478499999999999</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>0.65599012499999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f>ROUND(B20,3)</f>
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:L21" si="2">ROUND(C20,3)</f>
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>0.748</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <v>9</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>100</v>
+      </c>
+      <c r="B25">
+        <v>1.8079999999999999E-2</v>
+      </c>
+      <c r="C25">
+        <v>1.8213E-2</v>
+      </c>
+      <c r="D25">
+        <v>1.7432E-2</v>
+      </c>
+      <c r="E25">
+        <v>1.0815E-2</v>
+      </c>
+      <c r="F25">
+        <v>4.921E-3</v>
+      </c>
+      <c r="G25">
+        <v>1.6487000000000002E-2</v>
+      </c>
+      <c r="H25">
+        <v>1.3488E-2</v>
+      </c>
+      <c r="I25">
+        <v>1.8674E-2</v>
+      </c>
+      <c r="J25">
+        <v>1.9288E-2</v>
+      </c>
+      <c r="K25">
+        <v>1.8461000000000002E-2</v>
+      </c>
+      <c r="L25">
+        <v>1.9872000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>200</v>
+      </c>
+      <c r="B26">
+        <v>9.6279999999999994E-3</v>
+      </c>
+      <c r="C26">
+        <v>8.5559999999999994E-3</v>
+      </c>
+      <c r="D26">
+        <v>1.052E-2</v>
+      </c>
+      <c r="E26">
+        <v>5.4070000000000003E-3</v>
+      </c>
+      <c r="F26">
+        <v>2.5119999999999999E-3</v>
+      </c>
+      <c r="G26">
+        <v>9.6380000000000007E-3</v>
+      </c>
+      <c r="H26">
+        <v>9.5350000000000001E-3</v>
+      </c>
+      <c r="I26">
+        <v>9.8530000000000006E-3</v>
+      </c>
+      <c r="J26">
+        <v>1.0067E-2</v>
+      </c>
+      <c r="K26">
+        <v>1.1415E-2</v>
+      </c>
+      <c r="L26">
+        <v>1.0395E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>300</v>
+      </c>
+      <c r="B27">
+        <v>6.6950000000000004E-3</v>
+      </c>
+      <c r="C27">
+        <v>6.2469999999999999E-3</v>
+      </c>
+      <c r="D27">
+        <v>7.4549999999999998E-3</v>
+      </c>
+      <c r="E27">
+        <v>3.7490000000000002E-3</v>
+      </c>
+      <c r="F27">
+        <v>1.3270000000000001E-3</v>
+      </c>
+      <c r="G27">
+        <v>7.3470000000000002E-3</v>
+      </c>
+      <c r="H27">
+        <v>7.7149999999999996E-3</v>
+      </c>
+      <c r="I27">
+        <v>7.0730000000000003E-3</v>
+      </c>
+      <c r="J27">
+        <v>6.8649999999999996E-3</v>
+      </c>
+      <c r="K27">
+        <v>7.3169999999999997E-3</v>
+      </c>
+      <c r="L27">
+        <v>6.6490000000000004E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>400</v>
+      </c>
+      <c r="B28">
+        <v>5.1289999999999999E-3</v>
+      </c>
+      <c r="C28">
+        <v>4.8089999999999999E-3</v>
+      </c>
+      <c r="D28">
+        <v>5.4879999999999998E-3</v>
+      </c>
+      <c r="E28">
+        <v>2.5170000000000001E-3</v>
+      </c>
+      <c r="G28">
+        <v>5.6259999999999999E-3</v>
+      </c>
+      <c r="H28">
+        <v>6.5970000000000004E-3</v>
+      </c>
+      <c r="I28">
+        <v>6.0850000000000001E-3</v>
+      </c>
+      <c r="J28">
+        <v>5.6020000000000002E-3</v>
+      </c>
+      <c r="K28">
+        <v>5.0499999999999998E-3</v>
+      </c>
+      <c r="L28">
+        <v>5.4299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>500</v>
+      </c>
+      <c r="B29">
+        <v>4.5799999999999999E-3</v>
+      </c>
+      <c r="C29">
+        <v>4.2209999999999999E-3</v>
+      </c>
+      <c r="D29">
+        <v>4.4019999999999997E-3</v>
+      </c>
+      <c r="E29">
+        <v>2.513E-3</v>
+      </c>
+      <c r="G29">
+        <v>4.052E-3</v>
+      </c>
+      <c r="H29">
+        <v>5.2199999999999998E-3</v>
+      </c>
+      <c r="I29">
+        <v>5.019E-3</v>
+      </c>
+      <c r="J29">
+        <v>4.4980000000000003E-3</v>
+      </c>
+      <c r="K29">
+        <v>4.3899999999999998E-3</v>
+      </c>
+      <c r="L29">
+        <v>4.3990000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>600</v>
+      </c>
+      <c r="B30">
+        <v>3.6189999999999998E-3</v>
+      </c>
+      <c r="C30">
+        <v>3.4919999999999999E-3</v>
+      </c>
+      <c r="D30">
+        <v>3.457E-3</v>
+      </c>
+      <c r="G30">
+        <v>3.1380000000000002E-3</v>
+      </c>
+      <c r="H30">
+        <v>3.8649999999999999E-3</v>
+      </c>
+      <c r="I30">
+        <v>4.1240000000000001E-3</v>
+      </c>
+      <c r="J30">
+        <v>3.5279999999999999E-3</v>
+      </c>
+      <c r="K30">
+        <v>3.9909999999999998E-3</v>
+      </c>
+      <c r="L30">
+        <v>3.3670000000000002E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>700</v>
+      </c>
+      <c r="B31">
+        <v>3.2190000000000001E-3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.7439999999999999E-3</v>
+      </c>
+      <c r="D31">
+        <v>2.8E-3</v>
+      </c>
+      <c r="G31">
+        <v>2.6210000000000001E-3</v>
+      </c>
+      <c r="H31">
+        <v>2.823E-3</v>
+      </c>
+      <c r="J31">
+        <v>3.153E-3</v>
+      </c>
+      <c r="K31">
+        <v>3.222E-3</v>
+      </c>
+      <c r="L31">
+        <v>2.9229999999999998E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>800</v>
+      </c>
+      <c r="B32">
+        <v>2.8600000000000001E-3</v>
+      </c>
+      <c r="C32">
+        <v>2.6189999999999998E-3</v>
+      </c>
+      <c r="D32">
+        <v>2.7789999999999998E-3</v>
+      </c>
+      <c r="G32">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="H32">
+        <v>2.026E-3</v>
+      </c>
+      <c r="J32">
+        <v>2.918E-3</v>
+      </c>
+      <c r="K32">
+        <v>2.4190000000000001E-3</v>
+      </c>
+      <c r="L32">
+        <v>2.2569999999999999E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <f>AVERAGE(B25:B32)</f>
+        <v>6.7262499999999996E-3</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:L33" si="3">AVERAGE(C25:C32)</f>
+        <v>6.3626250000000002E-3</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>6.7916249999999982E-3</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>5.0002000000000007E-3</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>2.9200000000000003E-3</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="3"/>
+        <v>6.4198750000000002E-3</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>6.4086250000000003E-3</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>8.4713333333333342E-3</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>6.9898750000000004E-3</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>7.0331249999999994E-3</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>6.911500000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <f>ROUND(B33,4)</f>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:L34" si="4">ROUND(C33,4)</f>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <v>9</v>
+      </c>
+      <c r="L41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>1.173648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>200</v>
+      </c>
+      <c r="H43">
+        <v>1.1179939999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>300</v>
+      </c>
+      <c r="H44">
+        <v>1.0520940000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>400</v>
+      </c>
+      <c r="H45">
+        <v>0.97063299999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>500</v>
+      </c>
+      <c r="H46">
+        <v>0.89289600000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>600</v>
+      </c>
+      <c r="H47">
+        <v>0.81146399999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>700</v>
+      </c>
+      <c r="H48">
+        <v>0.75373999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>800</v>
+      </c>
+      <c r="H49">
+        <v>0.71679300000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/exp.xlsx
+++ b/exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\share_folder\kitti_localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46822715-824B-4B78-BF7E-D12D3D70B4B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C292D7-426E-41B7-A52F-765FD4DF0CEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15000" yWindow="2760" windowWidth="18120" windowHeight="15885" xr2:uid="{E600745C-2B55-4543-A3FF-1DEE9BB1AC8C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
   <si>
     <t>sequence</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7A36F3-FE8A-4D2D-8BA5-2972F8E685FF}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66:L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1406,6 +1406,18 @@
       <c r="H42">
         <v>1.173648</v>
       </c>
+      <c r="I42">
+        <v>1.0853950000000001</v>
+      </c>
+      <c r="J42">
+        <v>1.2781560000000001</v>
+      </c>
+      <c r="K42">
+        <v>1.315577</v>
+      </c>
+      <c r="L42">
+        <v>1.3062199999999999</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -1414,6 +1426,18 @@
       <c r="H43">
         <v>1.1179939999999999</v>
       </c>
+      <c r="I43">
+        <v>1.014143</v>
+      </c>
+      <c r="J43">
+        <v>1.189009</v>
+      </c>
+      <c r="K43">
+        <v>1.248936</v>
+      </c>
+      <c r="L43">
+        <v>1.20343</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -1422,6 +1446,18 @@
       <c r="H44">
         <v>1.0520940000000001</v>
       </c>
+      <c r="I44">
+        <v>0.96682999999999997</v>
+      </c>
+      <c r="J44">
+        <v>1.1430009999999999</v>
+      </c>
+      <c r="K44">
+        <v>1.2174799999999999</v>
+      </c>
+      <c r="L44">
+        <v>1.1486179999999999</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -1430,6 +1466,18 @@
       <c r="H45">
         <v>0.97063299999999997</v>
       </c>
+      <c r="I45">
+        <v>0.89555200000000001</v>
+      </c>
+      <c r="J45">
+        <v>1.1055870000000001</v>
+      </c>
+      <c r="K45">
+        <v>1.226254</v>
+      </c>
+      <c r="L45">
+        <v>1.1341220000000001</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -1438,6 +1486,18 @@
       <c r="H46">
         <v>0.89289600000000002</v>
       </c>
+      <c r="I46">
+        <v>0.80897200000000002</v>
+      </c>
+      <c r="J46">
+        <v>1.081826</v>
+      </c>
+      <c r="K46">
+        <v>1.242294</v>
+      </c>
+      <c r="L46">
+        <v>1.1743619999999999</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -1446,6 +1506,18 @@
       <c r="H47">
         <v>0.81146399999999996</v>
       </c>
+      <c r="I47">
+        <v>0.74197800000000003</v>
+      </c>
+      <c r="J47">
+        <v>1.071388</v>
+      </c>
+      <c r="K47">
+        <v>1.2303809999999999</v>
+      </c>
+      <c r="L47">
+        <v>1.120268</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -1454,18 +1526,322 @@
       <c r="H48">
         <v>0.75373999999999997</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>1.064524</v>
+      </c>
+      <c r="K48">
+        <v>1.197335</v>
+      </c>
+      <c r="L48">
+        <v>1.086414</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>800</v>
       </c>
       <c r="H49">
         <v>0.71679300000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <v>1.0498400000000001</v>
+      </c>
+      <c r="K49">
+        <v>1.14073</v>
+      </c>
+      <c r="L49">
+        <v>1.097637</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
+      </c>
+      <c r="H50">
+        <f>AVERAGE(H42:H49)</f>
+        <v>0.93615775000000001</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ref="I50:L50" si="5">AVERAGE(I42:I49)</f>
+        <v>0.91881166666666658</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="5"/>
+        <v>1.122916375</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="5"/>
+        <v>1.227373375</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="5"/>
+        <v>1.1588838750000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <f>ROUND(H50,4)</f>
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ref="I51:L51" si="6">ROUND(I50,4)</f>
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="6"/>
+        <v>1.1229</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="6"/>
+        <v>1.2274</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="6"/>
+        <v>1.1589</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>7</v>
+      </c>
+      <c r="J56">
+        <v>8</v>
+      </c>
+      <c r="K56">
+        <v>9</v>
+      </c>
+      <c r="L56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>100</v>
+      </c>
+      <c r="H57">
+        <v>7.9819999999999995E-3</v>
+      </c>
+      <c r="I57">
+        <v>1.6364E-2</v>
+      </c>
+      <c r="J57">
+        <v>1.2086E-2</v>
+      </c>
+      <c r="K57">
+        <v>7.7799999999999996E-3</v>
+      </c>
+      <c r="L57">
+        <v>7.2090000000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>200</v>
+      </c>
+      <c r="H58">
+        <v>6.8519999999999996E-3</v>
+      </c>
+      <c r="I58">
+        <v>1.1101E-2</v>
+      </c>
+      <c r="J58">
+        <v>9.1959999999999993E-3</v>
+      </c>
+      <c r="K58">
+        <v>5.4359999999999999E-3</v>
+      </c>
+      <c r="L58">
+        <v>5.4180000000000001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>300</v>
+      </c>
+      <c r="H59">
+        <v>6.9100000000000003E-3</v>
+      </c>
+      <c r="I59">
+        <v>9.4649999999999995E-3</v>
+      </c>
+      <c r="J59">
+        <v>6.8310000000000003E-3</v>
+      </c>
+      <c r="K59">
+        <v>4.4180000000000001E-3</v>
+      </c>
+      <c r="L59">
+        <v>4.9779999999999998E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>400</v>
+      </c>
+      <c r="H60">
+        <v>6.3610000000000003E-3</v>
+      </c>
+      <c r="I60">
+        <v>6.3680000000000004E-3</v>
+      </c>
+      <c r="J60">
+        <v>4.7569999999999999E-3</v>
+      </c>
+      <c r="K60">
+        <v>3.4190000000000002E-3</v>
+      </c>
+      <c r="L60">
+        <v>3.9589999999999998E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>500</v>
+      </c>
+      <c r="H61">
+        <v>5.398E-3</v>
+      </c>
+      <c r="I61">
+        <v>3.7230000000000002E-3</v>
+      </c>
+      <c r="J61">
+        <v>3.7360000000000002E-3</v>
+      </c>
+      <c r="K61">
+        <v>2.9420000000000002E-3</v>
+      </c>
+      <c r="L61">
+        <v>3.2039999999999998E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>600</v>
+      </c>
+      <c r="H62">
+        <v>3.62E-3</v>
+      </c>
+      <c r="I62">
+        <v>3.1970000000000002E-3</v>
+      </c>
+      <c r="J62">
+        <v>3.3270000000000001E-3</v>
+      </c>
+      <c r="K62">
+        <v>3.0119999999999999E-3</v>
+      </c>
+      <c r="L62">
+        <v>3.29E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>700</v>
+      </c>
+      <c r="H63">
+        <v>2.3419999999999999E-3</v>
+      </c>
+      <c r="J63">
+        <v>3.026E-3</v>
+      </c>
+      <c r="K63">
+        <v>2.9580000000000001E-3</v>
+      </c>
+      <c r="L63">
+        <v>3.4749999999999998E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>800</v>
+      </c>
+      <c r="H64">
+        <v>1.2210000000000001E-3</v>
+      </c>
+      <c r="J64">
+        <v>2.6809999999999998E-3</v>
+      </c>
+      <c r="K64">
+        <v>2.8530000000000001E-3</v>
+      </c>
+      <c r="L64">
+        <v>3.4390000000000002E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65">
+        <f>AVERAGE(H57:H64)</f>
+        <v>5.0857499999999991E-3</v>
+      </c>
+      <c r="I65">
+        <f t="shared" ref="I65" si="7">AVERAGE(I57:I64)</f>
+        <v>8.3696666666666659E-3</v>
+      </c>
+      <c r="J65">
+        <f t="shared" ref="J65" si="8">AVERAGE(J57:J64)</f>
+        <v>5.705E-3</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ref="K65" si="9">AVERAGE(K57:K64)</f>
+        <v>4.1022499999999991E-3</v>
+      </c>
+      <c r="L65">
+        <f t="shared" ref="L65" si="10">AVERAGE(L57:L64)</f>
+        <v>4.3714999999999995E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <f>ROUND(100*H65,2)</f>
+        <v>0.51</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ref="I66:L66" si="11">ROUND(100*I65,2)</f>
+        <v>0.84</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="11"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="11"/>
+        <v>0.41</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="11"/>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
